--- a/biology/Médecine/Syndrome_de_Laurence-Moon/Syndrome_de_Laurence-Moon.xlsx
+++ b/biology/Médecine/Syndrome_de_Laurence-Moon/Syndrome_de_Laurence-Moon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome de Laurence-Moon (SLM) est un syndrome caractérisé par des manifestations neurologiques, ophtalmologiques et endocriniennes progressives débutant dans l'enfance et provoquant une détérioration gravement handicapante.
 Les manifestations neurologiques incluent un déficit intellectuel et une ataxie qui conduit à une paraplégie spastique progressive chez l'adulte jeune.
